--- a/tests/out/families_df.xlsx
+++ b/tests/out/families_df.xlsx
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB10" t="n">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>FR;;EP</t>
+          <t>EP;;FR</t>
         </is>
       </c>
       <c r="AB31" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="AB35" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>US;;IL</t>
+          <t>IL;;US</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr"/>
